--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankajojha/Documents/GitHub/dean2175/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3177C68-E0C1-9249-8EBA-E82322D54140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2920CFA-9D2D-404D-A7EC-218CF3BAF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{D7DB2011-2176-475E-BA71-713F016EB447}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D7DB2011-2176-475E-BA71-713F016EB447}"/>
   </bookViews>
   <sheets>
     <sheet name="calculation" sheetId="1" r:id="rId1"/>
@@ -262,8 +262,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00000000000_);[Red]\(#,##0.00000000000\)"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000000000000_);[Red]\(#,##0.0000000000000\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000000000_);[Red]\(#,##0.00000000000\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000000000000_);[Red]\(#,##0.0000000000000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -380,7 +380,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -408,9 +408,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -729,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636567FE-20D7-490D-84B7-3BE9B5E479B6}">
   <dimension ref="A1:V970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,7 +808,7 @@
       <c r="N3" s="16">
         <v>10</v>
       </c>
-      <c r="O3" s="21"/>
+      <c r="O3" s="20"/>
       <c r="P3"/>
       <c r="R3" t="s">
         <v>48</v>
@@ -1035,7 +1034,7 @@
         <v>662121.21974910307</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" ref="T6:T37" si="7">S7*C$7</f>
+        <f t="shared" ref="T7:T37" si="7">S7*C$7</f>
         <v>33106.060987455152</v>
       </c>
       <c r="U7" s="14">
@@ -2185,7 +2184,7 @@
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="13">
         <f t="shared" si="10"/>
         <v>662121.21974910307</v>
       </c>
@@ -25912,7 +25911,7 @@
       </c>
     </row>
     <row r="970" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="N970" s="20"/>
+      <c r="N970" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
